--- a/Assets/Locallization/Table Backups/Table Templates/GameStory.xlsx
+++ b/Assets/Locallization/Table Backups/Table Templates/GameStory.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Git\URG\Assets\Locallization\Table Backups\Table Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C107B5CD-C894-40C4-82CC-DCD6E00CDBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1519C565-E896-46FD-998B-193539916FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GameStory" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="外部資料_1" localSheetId="0" hidden="1">GameStory!$A$1:$G$40</definedName>
+    <definedName name="外部資料_1" localSheetId="0" hidden="1">GameStory!$A$1:$G$41</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="103">
   <si>
     <t>Key</t>
   </si>
@@ -191,10 +191,6 @@
     <t>可是.......</t>
   </si>
   <si>
-    <t>Choice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -321,6 +317,74 @@
   </si>
   <si>
     <t>这样的暖意</t>
+  </si>
+  <si>
+    <t>这一列是公用的注释行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这一列是中文注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这一列是英文注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空位置需要留一个空格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号规则：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx_Ex_Lx_Cx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在选择对应的那一行 需要留一个空格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（如果不需要在选择的时候显示文字）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（可以统一优化成用Default）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Choice（这个只是注释，代码里用不到）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Choice（同理）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左边的 ID 行留空 Unity 会自己生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常结构：章节_分集_行数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择条目：章节_分集_行数_选择数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个表向下无限延伸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们真的能及时做完英文翻译吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先占个空位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -372,7 +436,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -426,8 +490,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E3AB7F85-F316-4899-AC17-0C68D361EC1A}" name="GameStory__2" displayName="GameStory__2" ref="A1:G40" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G40" xr:uid="{E3AB7F85-F316-4899-AC17-0C68D361EC1A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E3AB7F85-F316-4899-AC17-0C68D361EC1A}" name="GameStory__2" displayName="GameStory__2" ref="A1:G41" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:G41" xr:uid="{E3AB7F85-F316-4899-AC17-0C68D361EC1A}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{ED4219B5-0F86-4B94-AE4B-BF1F0897CFA2}" uniqueName="1" name="Key" queryTableFieldId="1" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{E7B05643-A74B-470E-99AA-79E9C033AB21}" uniqueName="2" name="Id" queryTableFieldId="2" dataDxfId="5"/>
@@ -704,21 +768,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C99F29FD-8CD8-439E-9030-AED2A95B3CA0}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="22.08203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.9140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.25" customWidth="1"/>
     <col min="4" max="4" width="60.4140625" customWidth="1"/>
-    <col min="5" max="5" width="33.9140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.9140625" customWidth="1"/>
+    <col min="6" max="6" width="48.58203125" customWidth="1"/>
+    <col min="7" max="7" width="28.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -746,13 +810,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" t="s">
         <v>51</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" t="s">
         <v>52</v>
       </c>
-      <c r="F2" t="s">
-        <v>53</v>
+      <c r="G2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -760,7 +833,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -777,10 +850,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
       </c>
       <c r="D4" t="s">
         <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -788,7 +867,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="D5" t="s">
         <v>29</v>
@@ -797,7 +876,7 @@
         <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -805,7 +884,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s">
         <v>30</v>
@@ -825,7 +904,7 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
         <v>31</v>
@@ -844,9 +923,6 @@
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
       <c r="D8" t="s">
         <v>32</v>
       </c>
@@ -865,7 +941,7 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="D9" t="s">
         <v>33</v>
@@ -884,9 +960,6 @@
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
       <c r="D10" t="s">
         <v>34</v>
       </c>
@@ -904,9 +977,6 @@
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
       <c r="D11" t="s">
         <v>35</v>
       </c>
@@ -1004,16 +1074,16 @@
       <c r="A22" t="s">
         <v>27</v>
       </c>
+      <c r="C22" t="s">
+        <v>95</v>
+      </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D23" t="s">
         <v>46</v>
@@ -1021,27 +1091,35 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
+        <v>92</v>
       </c>
       <c r="D24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
+        <v>93</v>
       </c>
       <c r="D25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
+        <v>94</v>
+      </c>
       <c r="D26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -1049,11 +1127,11 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -1061,11 +1139,11 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -1073,11 +1151,11 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -1085,11 +1163,11 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -1097,11 +1175,11 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -1109,11 +1187,11 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -1121,11 +1199,11 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -1133,11 +1211,11 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -1145,11 +1223,11 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -1157,11 +1235,11 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -1169,11 +1247,11 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -1181,20 +1259,22 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>69</v>
-      </c>
-      <c r="C38" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -1202,15 +1282,25 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="D40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
